--- a/compound_selection/zinc15_eMolecules_intersection_set/20170807_zinc15_eMolecules_subset_depiction/df_frag_final_oe_printable.xlsx
+++ b/compound_selection/zinc15_eMolecules_intersection_set/20170807_zinc15_eMolecules_subset_depiction/df_frag_final_oe_printable.xlsx
@@ -2,16 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$P</definedName>
-  </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="156">
   <si>
     <t>df_frag_final_oe.csv</t>
   </si>
@@ -30,688 +27,466 @@
     <t>Molecule</t>
   </si>
   <si>
+    <t>pKas in [3,11]</t>
+  </si>
+  <si>
+    <t>XlogP</t>
+  </si>
+  <si>
+    <t>MolWt</t>
+  </si>
+  <si>
+    <t>Availability (mg)</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>N_Rot</t>
+  </si>
+  <si>
+    <t>N_UV_chrom</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Bin index</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Final list</t>
+  </si>
+  <si>
     <t>eMolecules SMILES</t>
   </si>
   <si>
-    <t>pKas in [3,11]</t>
-  </si>
-  <si>
-    <t>XlogP</t>
-  </si>
-  <si>
-    <t>MolWt</t>
-  </si>
-  <si>
-    <t>Availability (mg)</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>N_Rot</t>
-  </si>
-  <si>
-    <t>N_UV_chrom</t>
-  </si>
-  <si>
-    <t>Selection</t>
-  </si>
-  <si>
-    <t>Bin index</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Final list</t>
-  </si>
-  <si>
     <t>canonical isomeric SMILES</t>
   </si>
   <si>
-    <t>eMolecules ID</t>
+    <t>[9.119]</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>533.0</t>
+  </si>
+  <si>
+    <t>fragment-like</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>picked</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
   <si>
     <t>Oc1cc2c3CCCNC(=O)c3oc2cc1</t>
   </si>
   <si>
-    <t>[9.119]</t>
-  </si>
-  <si>
-    <t>0.7199999690055847</t>
-  </si>
-  <si>
-    <t>217.221</t>
-  </si>
-  <si>
-    <t>184.0</t>
-  </si>
-  <si>
-    <t>533.0</t>
-  </si>
-  <si>
-    <t>fragment-like</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>picked</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>c1cc2c(cc1O)c3c(o2)C(=O)NCCC3</t>
   </si>
   <si>
-    <t>6679830</t>
+    <t>[3.869]</t>
+  </si>
+  <si>
+    <t>3430.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Nc1ncnc2c1cnn2c1ccccc1</t>
   </si>
   <si>
-    <t>[3.869]</t>
-  </si>
-  <si>
-    <t>1.4990001916885376</t>
-  </si>
-  <si>
-    <t>211.223</t>
-  </si>
-  <si>
-    <t>3430.0</t>
-  </si>
-  <si>
-    <t>414.0</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>c1ccc(cc1)n2c3c(cn2)c(ncn3)N</t>
   </si>
   <si>
-    <t>719540</t>
+    <t>[5.82, 8.709]</t>
+  </si>
+  <si>
+    <t>21650.2</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>Oc1ccc(cc1)n1cnc2c1cccc2</t>
   </si>
   <si>
-    <t>[5.82, 8.709]</t>
-  </si>
-  <si>
-    <t>2.2190003395080566</t>
-  </si>
-  <si>
-    <t>210.231</t>
-  </si>
-  <si>
-    <t>21650.2</t>
-  </si>
-  <si>
-    <t>148.0</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>c1ccc2c(c1)ncn2c3ccc(cc3)O</t>
   </si>
   <si>
-    <t>37095168</t>
+    <t>[6.342]</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>NC(=O)c1ccc2c(c1)nc([nH]2)c1ccccc1</t>
   </si>
   <si>
-    <t>[6.342]</t>
-  </si>
-  <si>
-    <t>2.1920003890991206</t>
-  </si>
-  <si>
-    <t>237.257</t>
-  </si>
-  <si>
-    <t>2000.0</t>
-  </si>
-  <si>
-    <t>168.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>c1ccc(cc1)c2[nH]c3ccc(cc3n2)C(=O)N</t>
   </si>
   <si>
-    <t>37053191</t>
+    <t>[6.348]</t>
+  </si>
+  <si>
+    <t>50213.0</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Nc1ccc2c(c1)ncn2c1ccccc1</t>
   </si>
   <si>
-    <t>[6.348]</t>
-  </si>
-  <si>
-    <t>2.3329999446868896</t>
-  </si>
-  <si>
-    <t>209.247</t>
-  </si>
-  <si>
-    <t>50213.0</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>c1ccc(cc1)n2cnc3c2ccc(c3)N</t>
   </si>
   <si>
-    <t>31653344</t>
+    <t>[4.082]</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>Nc1nonc1c1nc2c(n1CC1CC1)cccc2</t>
   </si>
   <si>
-    <t>[4.082]</t>
-  </si>
-  <si>
-    <t>2.43999981880188</t>
-  </si>
-  <si>
-    <t>255.275</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>c1ccc2c(c1)nc(n2CC3CC3)c4c(non4)N</t>
   </si>
   <si>
-    <t>8332960</t>
-  </si>
-  <si>
-    <t>O=C(c1n[nH]c2c1cccc2)Nc1ccccc1</t>
-  </si>
-  <si>
-    <t>[8.398]</t>
-  </si>
-  <si>
-    <t>2.6429998874664307</t>
-  </si>
-  <si>
-    <t>762.8</t>
+    <t>[4.267]</t>
+  </si>
+  <si>
+    <t>1864.0</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>COc1cc2c(ncnc2cc1OC)Nc1cccc(c1)C</t>
+  </si>
+  <si>
+    <t>Cc1cccc(c1)Nc2c3cc(c(cc3ncn2)OC)OC</t>
+  </si>
+  <si>
+    <t>[8.672]</t>
+  </si>
+  <si>
+    <t>149.1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>O=C(Nc1nc2c(s1)cccc2)CNC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>c1ccc(cc1)C(=O)NCC(=O)Nc2nc3ccccc3s2</t>
+  </si>
+  <si>
+    <t>[4.109]</t>
+  </si>
+  <si>
+    <t>232.1</t>
   </si>
   <si>
     <t>223.0</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>c1ccc(cc1)NC(=O)c2c3ccccc3[nH]n2</t>
-  </si>
-  <si>
-    <t>13419113</t>
-  </si>
-  <si>
-    <t>COc1cc2c(ncnc2cc1OC)Nc1cccc(c1)C</t>
-  </si>
-  <si>
-    <t>[4.267]</t>
-  </si>
-  <si>
-    <t>2.5950002670288086</t>
-  </si>
-  <si>
-    <t>295.336</t>
-  </si>
-  <si>
-    <t>1864.0</t>
-  </si>
-  <si>
-    <t>Cc1cccc(c1)Nc2c3cc(c(cc3ncn2)OC)OC</t>
-  </si>
-  <si>
-    <t>5828805</t>
-  </si>
-  <si>
-    <t>O=C(Nc1nc2c(s1)cccc2)CNC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>[8.672]</t>
-  </si>
-  <si>
-    <t>2.7179999351501465</t>
-  </si>
-  <si>
-    <t>311.358</t>
-  </si>
-  <si>
-    <t>149.1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>c1ccc(cc1)C(=O)NCC(=O)Nc2nc3ccccc3s2</t>
-  </si>
-  <si>
-    <t>23354217</t>
+    <t>59</t>
   </si>
   <si>
     <t>OC(=O)Cc1c(=O)[nH]c2c(c1c1ccccc1)cc(cc2)C</t>
   </si>
   <si>
-    <t>[4.109]</t>
-  </si>
-  <si>
-    <t>2.8030002117156982</t>
-  </si>
-  <si>
-    <t>293.317</t>
-  </si>
-  <si>
-    <t>232.1</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>Cc1ccc2c(c1)c(c(c(=O)[nH]2)CC(=O)O)c3ccccc3</t>
   </si>
   <si>
-    <t>1367649</t>
+    <t>[4.001, 10.328]</t>
+  </si>
+  <si>
+    <t>406.0</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Brc1cncc(c1)C(=O)Nc1cccc2c1nccc2</t>
   </si>
   <si>
-    <t>[4.001, 10.328]</t>
-  </si>
-  <si>
-    <t>2.922999620437622</t>
-  </si>
-  <si>
-    <t>328.163</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>c1cc2cccnc2c(c1)NC(=O)c3cc(cnc3)Br</t>
   </si>
   <si>
-    <t>18893169</t>
+    <t>[5.564]</t>
+  </si>
+  <si>
+    <t>208.7</t>
   </si>
   <si>
     <t>c1ccc(cc1)CNc1ncnc2c1cccc2</t>
   </si>
   <si>
-    <t>[5.564]</t>
-  </si>
-  <si>
-    <t>2.9070003032684326</t>
-  </si>
-  <si>
-    <t>235.284</t>
-  </si>
-  <si>
-    <t>208.7</t>
-  </si>
-  <si>
     <t>c1ccc(cc1)CNc2c3ccccc3ncn2</t>
   </si>
   <si>
-    <t>1327878</t>
+    <t>[4.714, 9.847]</t>
+  </si>
+  <si>
+    <t>385.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>O=C(c1c(Cl)cccc1Cl)Nc1ccncc1</t>
+  </si>
+  <si>
+    <t>c1cc(c(c(c1)Cl)C(=O)Nc2ccncc2)Cl</t>
+  </si>
+  <si>
+    <t>[4.05]</t>
+  </si>
+  <si>
+    <t>119.7</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>COc1cccc(c1)Nc1ncnc2c1cccc2.Cl</t>
   </si>
   <si>
-    <t>[4.05]</t>
-  </si>
-  <si>
-    <t>3.138999938964844</t>
-  </si>
-  <si>
-    <t>287.744</t>
-  </si>
-  <si>
-    <t>119.7</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>COc1cccc(c1)Nc2c3ccccc3ncn2.Cl</t>
   </si>
   <si>
-    <t>1865544</t>
+    <t>[4.294]</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>OCCNc1ncnc2c1c(c1ccccc1)c(o2)c1ccccc1</t>
   </si>
   <si>
-    <t>[4.294]</t>
-  </si>
-  <si>
-    <t>3.0820000171661377</t>
-  </si>
-  <si>
-    <t>331.36800000000005</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>c1ccc(cc1)c2c3c(ncnc3oc2c4ccccc4)NCCO</t>
   </si>
   <si>
-    <t>1415762</t>
+    <t>[4.902]</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>c1ccc(cc1)CSc1nnc(o1)c1ccncc1</t>
   </si>
   <si>
-    <t>[4.902]</t>
-  </si>
-  <si>
-    <t>3.3059999942779537</t>
-  </si>
-  <si>
-    <t>269.322</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>c1ccc(cc1)CSc2nnc(o2)c3ccncc3</t>
   </si>
   <si>
-    <t>1444229</t>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>355.0</t>
   </si>
   <si>
     <t>FC(c1cccc(c1)Nc1ncnc2c1cccc2)(F)F</t>
   </si>
   <si>
-    <t>3.2689995765686035</t>
-  </si>
-  <si>
-    <t>289.255</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>355.0</t>
-  </si>
-  <si>
     <t>c1ccc2c(c1)c(ncn2)Nc3cccc(c3)C(F)(F)F</t>
   </si>
   <si>
-    <t>1327907</t>
+    <t>[7.12]</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>O=C(c1cccs1)Nc1nnc(s1)Cc1ccccc1</t>
   </si>
   <si>
-    <t>[7.12]</t>
-  </si>
-  <si>
-    <t>3.6050002574920654</t>
-  </si>
-  <si>
-    <t>301.387</t>
-  </si>
-  <si>
-    <t>379.0</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>c1ccc(cc1)Cc2nnc(s2)NC(=O)c3cccs3</t>
   </si>
   <si>
-    <t>1228629</t>
+    <t>415.5</t>
   </si>
   <si>
     <t>Clc1ccc(cc1)CNc1ncnc2c1cccc2</t>
   </si>
   <si>
-    <t>3.523000240325928</t>
-  </si>
-  <si>
-    <t>269.72900000000004</t>
-  </si>
-  <si>
-    <t>415.5</t>
-  </si>
-  <si>
     <t>c1ccc2c(c1)c(ncn2)NCc3ccc(cc3)Cl</t>
   </si>
   <si>
-    <t>30719859</t>
+    <t>[5.346]</t>
+  </si>
+  <si>
+    <t>424.3</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Clc1ccc(o1)C(=O)Nc1ccccc1N1CCCCC1</t>
   </si>
   <si>
-    <t>[5.346]</t>
-  </si>
-  <si>
-    <t>3.794999837875366</t>
-  </si>
-  <si>
-    <t>304.771</t>
-  </si>
-  <si>
-    <t>424.3</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>c1ccc(c(c1)NC(=O)c2ccc(o2)Cl)N3CCCCC3</t>
   </si>
   <si>
-    <t>18908671</t>
+    <t>[7.903]</t>
+  </si>
+  <si>
+    <t>527.0</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>Cc1ccc(cc1)S(=O)(=O)Nc1cccc(c1)C(F)(F)F</t>
   </si>
   <si>
-    <t>[7.903]</t>
-  </si>
-  <si>
-    <t>3.747999668121338</t>
-  </si>
-  <si>
-    <t>315.311</t>
-  </si>
-  <si>
-    <t>527.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Cc1ccc(cc1)S(=O)(=O)Nc2cccc(c2)C(F)(F)F</t>
   </si>
   <si>
-    <t>1377874</t>
+    <t>[8.052]</t>
+  </si>
+  <si>
+    <t>125.0</t>
   </si>
   <si>
     <t>O=C1S/C(=C/c2ccc(o2)c2ccc(c(c2)Cl)F)/C(=O)N1</t>
   </si>
   <si>
-    <t>[8.052]</t>
-  </si>
-  <si>
-    <t>3.9079997539520255</t>
-  </si>
-  <si>
-    <t>323.7270000000001</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>c1cc(c(cc1c2ccc(o2)/C=C/3\C(=O)NC(=O)S3)Cl)F</t>
   </si>
   <si>
-    <t>25775231</t>
+    <t>7366.0</t>
   </si>
   <si>
     <t>Clc1cccc(c1)Nc1ncnc2c1cccc2.Cl</t>
   </si>
   <si>
-    <t>3.89900016784668</t>
-  </si>
-  <si>
-    <t>292.163</t>
-  </si>
-  <si>
-    <t>7366.0</t>
-  </si>
-  <si>
     <t>c1ccc2c(c1)c(ncn2)Nc3cccc(c3)Cl.Cl</t>
   </si>
   <si>
-    <t>1859493</t>
+    <t>[10.184]</t>
+  </si>
+  <si>
+    <t>10117.0</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>COc1cc(ccc1OC)c1csc(c1C(=O)OC(C)C)N</t>
   </si>
   <si>
-    <t>[10.184]</t>
-  </si>
-  <si>
-    <t>4.079999923706056</t>
-  </si>
-  <si>
-    <t>321.391</t>
-  </si>
-  <si>
-    <t>10117.0</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>CC(C)OC(=O)c1c(csc1N)c2ccc(c(c2)OC)OC</t>
   </si>
   <si>
-    <t>837243</t>
+    <t>[4.394]</t>
+  </si>
+  <si>
+    <t>3175.0</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>FC(c1ccc(cc1)c1nnc2n1nc(cc2)NC1CC1)(F)F</t>
   </si>
   <si>
-    <t>[4.394]</t>
-  </si>
-  <si>
-    <t>4.128999710083009</t>
-  </si>
-  <si>
-    <t>319.284</t>
-  </si>
-  <si>
-    <t>3175.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>c1cc(ccc1c2nnc3n2nc(cc3)NC4CC4)C(F)(F)F</t>
   </si>
   <si>
-    <t>5784088</t>
+    <t>[3.158]</t>
+  </si>
+  <si>
+    <t>283.7</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>O=C1Nc2c(/C/1=C/c1ccc(cc1)C(C)C)cccc2</t>
   </si>
   <si>
-    <t>[3.158]</t>
-  </si>
-  <si>
-    <t>4.2330002784728995</t>
-  </si>
-  <si>
-    <t>263.334</t>
-  </si>
-  <si>
-    <t>283.7</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>CC(C)c1ccc(cc1)/C=C\2/c3ccccc3NC2=O</t>
-  </si>
-  <si>
-    <t>45809595</t>
   </si>
 </sst>
 </file>
@@ -801,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +591,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,10 +626,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63582</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -883,10 +664,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>63582</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,10 +702,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -959,10 +740,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101682</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -997,10 +778,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>63582</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1035,10 +816,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1073,10 +854,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,10 +892,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1149,10 +930,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>177882</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1187,10 +968,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>177882</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1225,10 +1006,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1263,10 +1044,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1301,10 +1082,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1339,10 +1120,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>12782</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,10 +1158,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1415,10 +1196,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1453,10 +1234,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>88982</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1491,10 +1272,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1529,10 +1310,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76282</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,10 +1348,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1605,10 +1386,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>165182</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1643,10 +1424,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1587582</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1681,10 +1462,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>139782</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1719,10 +1500,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>38182</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1757,10 +1538,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1587582</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50882</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>127082</xdr:rowOff>
+      <xdr:rowOff>50882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2075,37 +1856,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="M2" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="20.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="39.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2113,17 +1889,17 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1">
+    <row r="2" spans="1:15" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2159,1183 +1935,1105 @@
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="9">
+        <v>0.71999996900558405</v>
+      </c>
+      <c r="D3" s="6">
+        <v>217.22099999999901</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="120" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.49900019168853</v>
+      </c>
+      <c r="D4" s="7">
+        <v>211.22299999999899</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.21900033950805</v>
+      </c>
+      <c r="D5" s="6">
+        <v>210.23099999999999</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.1920003890991202</v>
+      </c>
+      <c r="D6" s="7">
+        <v>237.25700000000001</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.3329999446868799</v>
+      </c>
+      <c r="D7" s="6">
+        <v>209.24700000000001</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.4399998188018799</v>
+      </c>
+      <c r="D8" s="7">
+        <v>255.27500000000001</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.5950002670288002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>295.33600000000001</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="120" customHeight="1">
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="127" customHeight="1">
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="117" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="120" customHeight="1">
-      <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="130" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="187.5" customHeight="1">
-      <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.7179999351501398</v>
+      </c>
+      <c r="D10" s="7">
+        <v>311.358</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.8030002117156898</v>
+      </c>
+      <c r="D11" s="6">
+        <v>293.31700000000001</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.9229996204376198</v>
+      </c>
+      <c r="D12" s="7">
+        <v>328.16300000000001</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="C13" s="9">
+        <v>2.90700030326843</v>
+      </c>
+      <c r="D13" s="6">
+        <v>235.28399999999999</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="132" customHeight="1">
-      <c r="B10" s="4" t="s">
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C14" s="10">
+        <v>2.9270000457763601</v>
+      </c>
+      <c r="D14" s="7">
+        <v>267.11099999999999</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="F14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="J14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="O14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3.1389999389648402</v>
+      </c>
+      <c r="D15" s="6">
+        <v>287.74400000000003</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>94</v>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="111" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3.0820000171661301</v>
+      </c>
+      <c r="D16" s="7">
+        <v>331.36799999999999</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="L16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="O16" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" s="4" customFormat="1" ht="111" customHeight="1">
-      <c r="B12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="17" spans="2:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C17" s="9">
+        <v>3.3059999942779501</v>
+      </c>
+      <c r="D17" s="6">
+        <v>269.322</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="126" customHeight="1">
-      <c r="B13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" ht="128" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="126" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="124" customHeight="1">
-      <c r="B16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="3" customFormat="1" ht="130" customHeight="1">
-      <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="4" customFormat="1" ht="127" customHeight="1">
+    <row r="18" spans="2:15" s="4" customFormat="1" ht="121" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>155</v>
+        <v>94</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3.2689995765686</v>
+      </c>
+      <c r="D18" s="7">
+        <v>289.255</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3.6050002574920601</v>
+      </c>
+      <c r="D19" s="6">
+        <v>301.387</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>160</v>
+      <c r="C20" s="10">
+        <v>3.5230002403259202</v>
+      </c>
+      <c r="D20" s="7">
+        <v>269.72899999999998</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="3" customFormat="1" ht="118" customHeight="1">
-      <c r="B19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" s="4" customFormat="1" ht="129" customHeight="1">
-      <c r="B20" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" s="3" customFormat="1" ht="119" customHeight="1">
+    <row r="21" spans="2:15" s="3" customFormat="1" ht="121" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>177</v>
+        <v>123</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3.79499983787536</v>
+      </c>
+      <c r="D21" s="6">
+        <v>304.77099999999899</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="22" spans="2:16" s="4" customFormat="1" ht="138" customHeight="1">
+    <row r="22" spans="2:15" s="4" customFormat="1" ht="121" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>185</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3.7479996681213299</v>
+      </c>
+      <c r="D22" s="7">
+        <v>315.31099999999998</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="23" spans="2:16" s="3" customFormat="1" ht="112" customHeight="1">
+    <row r="23" spans="2:15" s="3" customFormat="1" ht="121" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>193</v>
+        <v>133</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3.9079997539520201</v>
+      </c>
+      <c r="D23" s="6">
+        <v>323.72699999999998</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="4" customFormat="1" ht="121" customHeight="1">
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3.8990001678466801</v>
+      </c>
+      <c r="D24" s="7">
+        <v>292.16300000000001</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" s="3" customFormat="1" ht="121" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="9">
+        <v>4.0799999237060502</v>
+      </c>
+      <c r="D25" s="6">
+        <v>321.390999999999</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>198</v>
+      <c r="J25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:16" s="4" customFormat="1" ht="126" customHeight="1">
-      <c r="B24" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" s="3" customFormat="1" ht="114" customHeight="1">
-      <c r="B25" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" s="4" customFormat="1" ht="122" customHeight="1">
+    <row r="26" spans="2:15" s="4" customFormat="1" ht="121" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>215</v>
+        <v>145</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4.1289997100829998</v>
+      </c>
+      <c r="D26" s="7">
+        <v>319.28399999999999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="27" spans="2:16" s="3" customFormat="1" ht="115" customHeight="1">
+    <row r="27" spans="2:15" s="3" customFormat="1" ht="121" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>223</v>
+        <v>150</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4.2330002784729004</v>
+      </c>
+      <c r="D27" s="6">
+        <v>263.334</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3344,11 +3042,14 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" fitToHeight="3" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="53" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
